--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8234383953208081</v>
+        <v>0.8243289364228475</v>
       </c>
       <c r="E2">
-        <v>0.8234383953208081</v>
+        <v>0.8243289364228475</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.527923360674624E-05</v>
+        <v>1.517562940939917E-05</v>
       </c>
       <c r="E3">
-        <v>1.527923360674624E-05</v>
+        <v>1.517562940939917E-05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.007732815718055871</v>
+        <v>0.007720695492901638</v>
       </c>
       <c r="E4">
-        <v>0.007732815718055871</v>
+        <v>0.007720695492901638</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0003494634468324347</v>
+        <v>0.000349016615380066</v>
       </c>
       <c r="E5">
-        <v>0.0003494634468324347</v>
+        <v>0.000349016615380066</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8033236201090299</v>
+        <v>0.8032215568833873</v>
       </c>
       <c r="E6">
-        <v>0.8033236201090299</v>
+        <v>0.8032215568833873</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9970505658472657</v>
+        <v>0.3051696791851207</v>
       </c>
       <c r="E7">
-        <v>0.002949434152734298</v>
+        <v>0.6948303208148794</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9964567114248071</v>
+        <v>0.9999987551882091</v>
       </c>
       <c r="E8">
-        <v>0.003543288575192927</v>
+        <v>1.244811790868106E-06</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9997164053341389</v>
+        <v>0.9909720097608554</v>
       </c>
       <c r="E9">
-        <v>0.0002835946658611421</v>
+        <v>0.009027990239144579</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9963749862854436</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.003625013714556369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9994987588039145</v>
+        <v>0.0001598077461993702</v>
       </c>
       <c r="E11">
-        <v>0.0005012411960855223</v>
+        <v>0.9998401922538006</v>
       </c>
       <c r="F11">
-        <v>0.3379328548908234</v>
+        <v>1.331043124198914</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8984856194158566</v>
+        <v>0.8986412885892574</v>
       </c>
       <c r="E12">
-        <v>0.8984856194158566</v>
+        <v>0.8986412885892574</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.002455458355508256</v>
+        <v>0.002470371116379446</v>
       </c>
       <c r="E13">
-        <v>0.002455458355508256</v>
+        <v>0.002470371116379446</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0005519725719170091</v>
+        <v>0.0005515971648240394</v>
       </c>
       <c r="E14">
-        <v>0.0005519725719170091</v>
+        <v>0.0005515971648240394</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0006570577128855535</v>
+        <v>0.0006575401089120316</v>
       </c>
       <c r="E15">
-        <v>0.0006570577128855535</v>
+        <v>0.0006575401089120316</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.7866843061320026</v>
+        <v>0.7864184865984901</v>
       </c>
       <c r="E16">
-        <v>0.7866843061320026</v>
+        <v>0.7864184865984901</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9999675160330979</v>
+        <v>0.06677099487235535</v>
       </c>
       <c r="E17">
-        <v>3.24839669021415E-05</v>
+        <v>0.9332290051276446</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9999600841304709</v>
+        <v>0.9999999886498433</v>
       </c>
       <c r="E18">
-        <v>3.991586952911685E-05</v>
+        <v>1.135015670339357E-08</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.999998182892733</v>
+        <v>0.995520671794768</v>
       </c>
       <c r="E19">
-        <v>1.817107266988138E-06</v>
+        <v>0.004479328205232003</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9999584466837024</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>4.155331629762671E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9999964881586827</v>
+        <v>0.2216503757703994</v>
       </c>
       <c r="E21">
-        <v>3.511841317305198E-06</v>
+        <v>0.7783496242296006</v>
       </c>
       <c r="F21">
-        <v>0.3836324512958527</v>
+        <v>0.8054138422012329</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
